--- a/app/webroot/excel/work_schedule_2.xlsx
+++ b/app/webroot/excel/work_schedule_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1220" windowWidth="25460" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="25460" windowHeight="15440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="人員配置表" sheetId="4" r:id="rId1"/>
@@ -1130,17 +1130,17 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BU40"/>
+  <dimension ref="B1:BU45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.1640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="72" width="2.1640625" customWidth="1"/>
     <col min="73" max="73" width="10.33203125" customWidth="1"/>
@@ -1343,7 +1343,7 @@
       <c r="BS5" s="11"/>
       <c r="BT5" s="38"/>
       <c r="BU5" s="43">
-        <f t="shared" ref="BU5:BU34" si="0">COUNT(E5:BT5)/4</f>
+        <f t="shared" ref="BU5:BU39" si="0">COUNT(E5:BT5)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -3126,75 +3126,75 @@
     </row>
     <row r="29" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
       <c r="Q29" s="31"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
       <c r="U29" s="31"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
       <c r="Y29" s="31"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
       <c r="AC29" s="31"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
       <c r="AG29" s="31"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
       <c r="AK29" s="31"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="39"/>
       <c r="AN29" s="32"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="20"/>
-      <c r="AU29" s="18"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="33"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="40"/>
+      <c r="AU29" s="40"/>
       <c r="AV29" s="33"/>
       <c r="AW29" s="34"/>
-      <c r="AX29" s="18"/>
-      <c r="AY29" s="18"/>
+      <c r="AX29" s="40"/>
+      <c r="AY29" s="40"/>
       <c r="AZ29" s="33"/>
       <c r="BA29" s="34"/>
-      <c r="BB29" s="18"/>
-      <c r="BC29" s="18"/>
+      <c r="BB29" s="40"/>
+      <c r="BC29" s="40"/>
       <c r="BD29" s="33"/>
-      <c r="BE29" s="18"/>
-      <c r="BF29" s="18"/>
-      <c r="BG29" s="18"/>
+      <c r="BE29" s="40"/>
+      <c r="BF29" s="40"/>
+      <c r="BG29" s="40"/>
       <c r="BH29" s="19"/>
-      <c r="BI29" s="31"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="20"/>
-      <c r="BL29" s="20"/>
-      <c r="BM29" s="31"/>
-      <c r="BN29" s="20"/>
-      <c r="BO29" s="20"/>
-      <c r="BP29" s="20"/>
-      <c r="BQ29" s="31"/>
-      <c r="BR29" s="20"/>
-      <c r="BS29" s="20"/>
+      <c r="BI29" s="34"/>
+      <c r="BJ29" s="39"/>
+      <c r="BK29" s="39"/>
+      <c r="BL29" s="39"/>
+      <c r="BM29" s="34"/>
+      <c r="BN29" s="39"/>
+      <c r="BO29" s="39"/>
+      <c r="BP29" s="39"/>
+      <c r="BQ29" s="34"/>
+      <c r="BR29" s="39"/>
+      <c r="BS29" s="39"/>
       <c r="BT29" s="39"/>
       <c r="BU29" s="43">
         <f t="shared" si="0"/>
@@ -3203,75 +3203,75 @@
     </row>
     <row r="30" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
       <c r="Q30" s="31"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
       <c r="U30" s="31"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
       <c r="Y30" s="31"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
       <c r="AC30" s="31"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
       <c r="AG30" s="31"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
       <c r="AK30" s="31"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
+      <c r="AL30" s="39"/>
+      <c r="AM30" s="39"/>
       <c r="AN30" s="32"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="20"/>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="20"/>
-      <c r="AU30" s="18"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="40"/>
+      <c r="AR30" s="33"/>
+      <c r="AS30" s="34"/>
+      <c r="AT30" s="40"/>
+      <c r="AU30" s="40"/>
       <c r="AV30" s="33"/>
       <c r="AW30" s="34"/>
-      <c r="AX30" s="18"/>
-      <c r="AY30" s="18"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="40"/>
       <c r="AZ30" s="33"/>
       <c r="BA30" s="34"/>
-      <c r="BB30" s="18"/>
-      <c r="BC30" s="18"/>
+      <c r="BB30" s="40"/>
+      <c r="BC30" s="40"/>
       <c r="BD30" s="33"/>
-      <c r="BE30" s="11"/>
-      <c r="BF30" s="11"/>
-      <c r="BG30" s="11"/>
-      <c r="BH30" s="12"/>
-      <c r="BI30" s="31"/>
-      <c r="BJ30" s="20"/>
-      <c r="BK30" s="20"/>
-      <c r="BL30" s="20"/>
-      <c r="BM30" s="31"/>
-      <c r="BN30" s="20"/>
-      <c r="BO30" s="20"/>
-      <c r="BP30" s="20"/>
-      <c r="BQ30" s="31"/>
-      <c r="BR30" s="20"/>
-      <c r="BS30" s="20"/>
+      <c r="BE30" s="40"/>
+      <c r="BF30" s="40"/>
+      <c r="BG30" s="40"/>
+      <c r="BH30" s="19"/>
+      <c r="BI30" s="34"/>
+      <c r="BJ30" s="39"/>
+      <c r="BK30" s="39"/>
+      <c r="BL30" s="39"/>
+      <c r="BM30" s="34"/>
+      <c r="BN30" s="39"/>
+      <c r="BO30" s="39"/>
+      <c r="BP30" s="39"/>
+      <c r="BQ30" s="34"/>
+      <c r="BR30" s="39"/>
+      <c r="BS30" s="39"/>
       <c r="BT30" s="39"/>
       <c r="BU30" s="43">
         <f t="shared" si="0"/>
@@ -3280,76 +3280,76 @@
     </row>
     <row r="31" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="19"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
       <c r="M31" s="34"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
       <c r="Q31" s="31"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
       <c r="U31" s="31"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
       <c r="Y31" s="31"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
       <c r="AC31" s="31"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="18"/>
-      <c r="AI31" s="18"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="18"/>
-      <c r="AM31" s="18"/>
-      <c r="AN31" s="33"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="39"/>
+      <c r="AM31" s="39"/>
+      <c r="AN31" s="32"/>
       <c r="AO31" s="34"/>
-      <c r="AP31" s="18"/>
-      <c r="AQ31" s="18"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
       <c r="AR31" s="33"/>
       <c r="AS31" s="34"/>
-      <c r="AT31" s="18"/>
-      <c r="AU31" s="18"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="40"/>
       <c r="AV31" s="33"/>
       <c r="AW31" s="34"/>
-      <c r="AX31" s="18"/>
-      <c r="AY31" s="18"/>
+      <c r="AX31" s="40"/>
+      <c r="AY31" s="40"/>
       <c r="AZ31" s="33"/>
       <c r="BA31" s="34"/>
-      <c r="BB31" s="18"/>
-      <c r="BC31" s="18"/>
+      <c r="BB31" s="40"/>
+      <c r="BC31" s="40"/>
       <c r="BD31" s="33"/>
-      <c r="BE31" s="11"/>
-      <c r="BF31" s="11"/>
-      <c r="BG31" s="11"/>
-      <c r="BH31" s="12"/>
+      <c r="BE31" s="40"/>
+      <c r="BF31" s="40"/>
+      <c r="BG31" s="40"/>
+      <c r="BH31" s="19"/>
       <c r="BI31" s="34"/>
-      <c r="BJ31" s="18"/>
-      <c r="BK31" s="18"/>
-      <c r="BL31" s="18"/>
+      <c r="BJ31" s="39"/>
+      <c r="BK31" s="39"/>
+      <c r="BL31" s="39"/>
       <c r="BM31" s="34"/>
-      <c r="BN31" s="18"/>
-      <c r="BO31" s="18"/>
-      <c r="BP31" s="18"/>
+      <c r="BN31" s="39"/>
+      <c r="BO31" s="39"/>
+      <c r="BP31" s="39"/>
       <c r="BQ31" s="34"/>
-      <c r="BR31" s="18"/>
-      <c r="BS31" s="18"/>
-      <c r="BT31" s="40"/>
+      <c r="BR31" s="39"/>
+      <c r="BS31" s="39"/>
+      <c r="BT31" s="39"/>
       <c r="BU31" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3357,76 +3357,76 @@
     </row>
     <row r="32" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="19"/>
       <c r="I32" s="34"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
       <c r="M32" s="34"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
       <c r="Q32" s="31"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
       <c r="U32" s="31"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
       <c r="Y32" s="31"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
       <c r="AC32" s="31"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+      <c r="AF32" s="39"/>
       <c r="AG32" s="31"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
       <c r="AK32" s="31"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="20"/>
-      <c r="AO32" s="31"/>
-      <c r="AP32" s="20"/>
-      <c r="AQ32" s="20"/>
-      <c r="AR32" s="20"/>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="20"/>
-      <c r="AU32" s="20"/>
-      <c r="AV32" s="20"/>
-      <c r="AW32" s="31"/>
-      <c r="AX32" s="20"/>
-      <c r="AY32" s="20"/>
-      <c r="AZ32" s="20"/>
-      <c r="BA32" s="31"/>
-      <c r="BB32" s="20"/>
-      <c r="BC32" s="20"/>
-      <c r="BD32" s="20"/>
-      <c r="BE32" s="31"/>
-      <c r="BF32" s="20"/>
-      <c r="BG32" s="20"/>
-      <c r="BH32" s="20"/>
+      <c r="AL32" s="39"/>
+      <c r="AM32" s="39"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="40"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="34"/>
+      <c r="AT32" s="40"/>
+      <c r="AU32" s="40"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="34"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="40"/>
+      <c r="AZ32" s="33"/>
+      <c r="BA32" s="34"/>
+      <c r="BB32" s="40"/>
+      <c r="BC32" s="40"/>
+      <c r="BD32" s="33"/>
+      <c r="BE32" s="40"/>
+      <c r="BF32" s="40"/>
+      <c r="BG32" s="40"/>
+      <c r="BH32" s="19"/>
       <c r="BI32" s="34"/>
-      <c r="BJ32" s="18"/>
-      <c r="BK32" s="18"/>
-      <c r="BL32" s="18"/>
+      <c r="BJ32" s="39"/>
+      <c r="BK32" s="39"/>
+      <c r="BL32" s="39"/>
       <c r="BM32" s="34"/>
-      <c r="BN32" s="18"/>
-      <c r="BO32" s="18"/>
-      <c r="BP32" s="18"/>
+      <c r="BN32" s="39"/>
+      <c r="BO32" s="39"/>
+      <c r="BP32" s="39"/>
       <c r="BQ32" s="34"/>
-      <c r="BR32" s="18"/>
-      <c r="BS32" s="18"/>
-      <c r="BT32" s="40"/>
+      <c r="BR32" s="39"/>
+      <c r="BS32" s="39"/>
+      <c r="BT32" s="39"/>
       <c r="BU32" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3434,1036 +3434,1421 @@
     </row>
     <row r="33" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="19"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
       <c r="M33" s="34"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
       <c r="Q33" s="31"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
       <c r="U33" s="31"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
       <c r="Y33" s="31"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
       <c r="AC33" s="31"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
       <c r="AG33" s="31"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
       <c r="AK33" s="31"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
-      <c r="AN33" s="20"/>
+      <c r="AL33" s="39"/>
+      <c r="AM33" s="39"/>
+      <c r="AN33" s="32"/>
       <c r="AO33" s="34"/>
-      <c r="AP33" s="18"/>
-      <c r="AQ33" s="18"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="40"/>
       <c r="AR33" s="33"/>
       <c r="AS33" s="34"/>
-      <c r="AT33" s="18"/>
-      <c r="AU33" s="18"/>
+      <c r="AT33" s="40"/>
+      <c r="AU33" s="40"/>
       <c r="AV33" s="33"/>
       <c r="AW33" s="34"/>
-      <c r="AX33" s="18"/>
-      <c r="AY33" s="18"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="40"/>
       <c r="AZ33" s="33"/>
       <c r="BA33" s="34"/>
-      <c r="BB33" s="18"/>
-      <c r="BC33" s="18"/>
+      <c r="BB33" s="40"/>
+      <c r="BC33" s="40"/>
       <c r="BD33" s="33"/>
-      <c r="BE33" s="18"/>
-      <c r="BF33" s="18"/>
-      <c r="BG33" s="18"/>
+      <c r="BE33" s="40"/>
+      <c r="BF33" s="40"/>
+      <c r="BG33" s="40"/>
       <c r="BH33" s="19"/>
       <c r="BI33" s="34"/>
-      <c r="BJ33" s="18"/>
-      <c r="BK33" s="18"/>
-      <c r="BL33" s="18"/>
+      <c r="BJ33" s="39"/>
+      <c r="BK33" s="39"/>
+      <c r="BL33" s="39"/>
       <c r="BM33" s="34"/>
-      <c r="BN33" s="18"/>
-      <c r="BO33" s="18"/>
-      <c r="BP33" s="18"/>
+      <c r="BN33" s="39"/>
+      <c r="BO33" s="39"/>
+      <c r="BP33" s="39"/>
       <c r="BQ33" s="34"/>
-      <c r="BR33" s="18"/>
-      <c r="BS33" s="18"/>
-      <c r="BT33" s="40"/>
+      <c r="BR33" s="39"/>
+      <c r="BS33" s="39"/>
+      <c r="BT33" s="39"/>
       <c r="BU33" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:73" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="82"/>
       <c r="C34" s="82"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="48"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="48"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="48"/>
-      <c r="AU34" s="48"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="48"/>
-      <c r="AY34" s="48"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="48"/>
-      <c r="BC34" s="48"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="49"/>
-      <c r="BF34" s="49"/>
-      <c r="BG34" s="49"/>
-      <c r="BH34" s="21"/>
-      <c r="BI34" s="35"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="41"/>
-      <c r="BM34" s="35"/>
-      <c r="BN34" s="41"/>
-      <c r="BO34" s="41"/>
-      <c r="BP34" s="41"/>
-      <c r="BQ34" s="35"/>
-      <c r="BR34" s="41"/>
-      <c r="BS34" s="41"/>
-      <c r="BT34" s="41"/>
-      <c r="BU34" s="50">
+      <c r="D34" s="7"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="20"/>
+      <c r="AU34" s="18"/>
+      <c r="AV34" s="33"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="18"/>
+      <c r="AZ34" s="33"/>
+      <c r="BA34" s="34"/>
+      <c r="BB34" s="18"/>
+      <c r="BC34" s="18"/>
+      <c r="BD34" s="33"/>
+      <c r="BE34" s="18"/>
+      <c r="BF34" s="18"/>
+      <c r="BG34" s="18"/>
+      <c r="BH34" s="19"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="20"/>
+      <c r="BK34" s="20"/>
+      <c r="BL34" s="20"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="20"/>
+      <c r="BO34" s="20"/>
+      <c r="BP34" s="20"/>
+      <c r="BQ34" s="31"/>
+      <c r="BR34" s="20"/>
+      <c r="BS34" s="20"/>
+      <c r="BT34" s="39"/>
+      <c r="BU34" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:73" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="72">
-        <f>COUNT(E11:H25)/4</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="67">
-        <f>COUNT(I5:L24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="67">
-        <f>COUNT(M5:P24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="67">
-        <f>COUNT(Q5:T24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="67">
-        <f>COUNT(U5:X24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="67">
-        <f>COUNT(Y5:AB24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="67">
-        <f>COUNT(AC5:AF24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="67">
-        <f>COUNT(AG5:AJ24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="68"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="67">
-        <f>COUNT(AK5:AN24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AL35" s="68"/>
-      <c r="AM35" s="68"/>
-      <c r="AN35" s="69"/>
-      <c r="AO35" s="67">
-        <f>COUNT(AO5:AR24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AP35" s="68"/>
-      <c r="AQ35" s="68"/>
-      <c r="AR35" s="69"/>
-      <c r="AS35" s="67">
-        <f>COUNT(AS5:AV24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AT35" s="68"/>
-      <c r="AU35" s="68"/>
-      <c r="AV35" s="69"/>
-      <c r="AW35" s="67">
-        <f>COUNT(AW5:AZ24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AX35" s="68"/>
-      <c r="AY35" s="68"/>
-      <c r="AZ35" s="69"/>
-      <c r="BA35" s="67">
-        <f>COUNT(BA5:BD24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BB35" s="68"/>
-      <c r="BC35" s="68"/>
-      <c r="BD35" s="69"/>
-      <c r="BE35" s="67">
-        <f>COUNT(BE5:BH24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BF35" s="68"/>
-      <c r="BG35" s="68"/>
-      <c r="BH35" s="69"/>
-      <c r="BI35" s="67">
-        <f>COUNT(BI5:BL24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="68"/>
-      <c r="BK35" s="68"/>
-      <c r="BL35" s="69"/>
-      <c r="BM35" s="67">
-        <f>COUNT(BM5:BP24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BN35" s="68"/>
-      <c r="BO35" s="68"/>
-      <c r="BP35" s="69"/>
-      <c r="BQ35" s="72">
-        <f>COUNT(BQ5:BT24)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BR35" s="68"/>
-      <c r="BS35" s="68"/>
-      <c r="BT35" s="68"/>
-      <c r="BU35" s="51">
-        <f>SUM(F35:BT35)</f>
+    <row r="35" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="20"/>
+      <c r="AU35" s="18"/>
+      <c r="AV35" s="33"/>
+      <c r="AW35" s="34"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+      <c r="AZ35" s="33"/>
+      <c r="BA35" s="34"/>
+      <c r="BB35" s="18"/>
+      <c r="BC35" s="18"/>
+      <c r="BD35" s="33"/>
+      <c r="BE35" s="11"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="12"/>
+      <c r="BI35" s="31"/>
+      <c r="BJ35" s="20"/>
+      <c r="BK35" s="20"/>
+      <c r="BL35" s="20"/>
+      <c r="BM35" s="31"/>
+      <c r="BN35" s="20"/>
+      <c r="BO35" s="20"/>
+      <c r="BP35" s="20"/>
+      <c r="BQ35" s="31"/>
+      <c r="BR35" s="20"/>
+      <c r="BS35" s="20"/>
+      <c r="BT35" s="39"/>
+      <c r="BU35" s="43">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:73" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="72">
-        <f>COUNT(E29:H34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="67">
-        <f>COUNT(I25:L34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="67">
-        <f>COUNT(M25:P34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="67">
-        <f>COUNT(Q25:T34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="67">
-        <f>COUNT(U25:X34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="67">
-        <f>COUNT(Y25:AB34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="67">
-        <f>COUNT(AC25:AF34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="68"/>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="67">
-        <f>COUNT(AG25:AJ34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="67">
-        <f>COUNT(AK25:AN34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="68"/>
-      <c r="AM36" s="68"/>
-      <c r="AN36" s="69"/>
-      <c r="AO36" s="67">
-        <f>COUNT(AO25:AR34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AP36" s="68"/>
-      <c r="AQ36" s="68"/>
-      <c r="AR36" s="69"/>
-      <c r="AS36" s="67">
-        <f>COUNT(AS25:AV34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AT36" s="68"/>
-      <c r="AU36" s="68"/>
-      <c r="AV36" s="69"/>
-      <c r="AW36" s="67">
-        <f>COUNT(AW25:AZ34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="AX36" s="68"/>
-      <c r="AY36" s="68"/>
-      <c r="AZ36" s="69"/>
-      <c r="BA36" s="67">
-        <f>COUNT(BA25:BD34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BB36" s="68"/>
-      <c r="BC36" s="68"/>
-      <c r="BD36" s="69"/>
-      <c r="BE36" s="67">
-        <f>COUNT(BE25:BH34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BF36" s="68"/>
-      <c r="BG36" s="68"/>
-      <c r="BH36" s="69"/>
-      <c r="BI36" s="67">
-        <f>COUNT(BI25:BL34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="68"/>
-      <c r="BK36" s="68"/>
-      <c r="BL36" s="69"/>
-      <c r="BM36" s="67">
-        <f>COUNT(BM25:BP34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BN36" s="68"/>
-      <c r="BO36" s="68"/>
-      <c r="BP36" s="69"/>
-      <c r="BQ36" s="72">
-        <f>COUNT(BQ25:BT34)/4</f>
-        <v>0</v>
-      </c>
-      <c r="BR36" s="68"/>
-      <c r="BS36" s="68"/>
-      <c r="BT36" s="68"/>
-      <c r="BU36" s="51">
-        <f>SUM(F36:BT36)</f>
+    <row r="36" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="34"/>
+      <c r="AT36" s="18"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="34"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="18"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="34"/>
+      <c r="BB36" s="18"/>
+      <c r="BC36" s="18"/>
+      <c r="BD36" s="33"/>
+      <c r="BE36" s="11"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="12"/>
+      <c r="BI36" s="34"/>
+      <c r="BJ36" s="18"/>
+      <c r="BK36" s="18"/>
+      <c r="BL36" s="18"/>
+      <c r="BM36" s="34"/>
+      <c r="BN36" s="18"/>
+      <c r="BO36" s="18"/>
+      <c r="BP36" s="18"/>
+      <c r="BQ36" s="34"/>
+      <c r="BR36" s="18"/>
+      <c r="BS36" s="18"/>
+      <c r="BT36" s="40"/>
+      <c r="BU36" s="43">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:73" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="76">
-        <f>E35+E36</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="73">
-        <f>I35+I36</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="73">
-        <f>M35+M36</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="73">
-        <f>Q35+Q36</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="73">
-        <f>U35+U36</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="73">
-        <f>Y35+Y36</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="73">
-        <f>AC35+AC36</f>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="74"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="75"/>
-      <c r="AG37" s="73">
-        <f>AG35+AG36</f>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="74"/>
-      <c r="AI37" s="74"/>
-      <c r="AJ37" s="75"/>
-      <c r="AK37" s="73">
-        <f>AK35+AK36</f>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="74"/>
-      <c r="AM37" s="74"/>
-      <c r="AN37" s="75"/>
-      <c r="AO37" s="73">
-        <f>AO35+AO36</f>
-        <v>0</v>
-      </c>
-      <c r="AP37" s="74"/>
-      <c r="AQ37" s="74"/>
-      <c r="AR37" s="75"/>
-      <c r="AS37" s="73">
-        <f>AS35+AS36</f>
-        <v>0</v>
-      </c>
-      <c r="AT37" s="74"/>
-      <c r="AU37" s="74"/>
-      <c r="AV37" s="75"/>
-      <c r="AW37" s="73">
-        <f>AW35+AW36</f>
-        <v>0</v>
-      </c>
-      <c r="AX37" s="74"/>
-      <c r="AY37" s="74"/>
-      <c r="AZ37" s="75"/>
-      <c r="BA37" s="73">
-        <f>BA35+BA36</f>
-        <v>0</v>
-      </c>
-      <c r="BB37" s="74"/>
-      <c r="BC37" s="74"/>
-      <c r="BD37" s="75"/>
-      <c r="BE37" s="73">
-        <f>BE35+BE36</f>
-        <v>0</v>
-      </c>
-      <c r="BF37" s="74"/>
-      <c r="BG37" s="74"/>
-      <c r="BH37" s="75"/>
-      <c r="BI37" s="73">
-        <f>BI35+BI36</f>
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="74"/>
-      <c r="BK37" s="74"/>
-      <c r="BL37" s="75"/>
-      <c r="BM37" s="73">
-        <f>BM35+BM36</f>
-        <v>0</v>
-      </c>
-      <c r="BN37" s="74"/>
-      <c r="BO37" s="74"/>
-      <c r="BP37" s="75"/>
-      <c r="BQ37" s="76">
-        <f>BQ35+BQ36</f>
-        <v>0</v>
-      </c>
-      <c r="BR37" s="74"/>
-      <c r="BS37" s="74"/>
-      <c r="BT37" s="74"/>
-      <c r="BU37" s="44">
-        <f>SUM(F37:BT37)</f>
+    <row r="37" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="20"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="20"/>
+      <c r="AU37" s="20"/>
+      <c r="AV37" s="20"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="20"/>
+      <c r="AY37" s="20"/>
+      <c r="AZ37" s="20"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="20"/>
+      <c r="BC37" s="20"/>
+      <c r="BD37" s="20"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="20"/>
+      <c r="BG37" s="20"/>
+      <c r="BH37" s="20"/>
+      <c r="BI37" s="34"/>
+      <c r="BJ37" s="18"/>
+      <c r="BK37" s="18"/>
+      <c r="BL37" s="18"/>
+      <c r="BM37" s="34"/>
+      <c r="BN37" s="18"/>
+      <c r="BO37" s="18"/>
+      <c r="BP37" s="18"/>
+      <c r="BQ37" s="34"/>
+      <c r="BR37" s="18"/>
+      <c r="BS37" s="18"/>
+      <c r="BT37" s="40"/>
+      <c r="BU37" s="43">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:73" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="65">
-        <v>0</v>
-      </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="64">
-        <v>0</v>
-      </c>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="60">
-        <v>0</v>
-      </c>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="60">
-        <v>0</v>
-      </c>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="60">
-        <v>0</v>
-      </c>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="60">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="61"/>
-      <c r="AA38" s="61"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="61"/>
-      <c r="AE38" s="61"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="60">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="61"/>
-      <c r="AI38" s="61"/>
-      <c r="AJ38" s="62"/>
-      <c r="AK38" s="60">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="61"/>
-      <c r="AM38" s="61"/>
-      <c r="AN38" s="62"/>
-      <c r="AO38" s="60">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="61"/>
-      <c r="AQ38" s="61"/>
-      <c r="AR38" s="62"/>
-      <c r="AS38" s="60">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="61"/>
-      <c r="AU38" s="61"/>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="60">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="61"/>
-      <c r="AY38" s="61"/>
-      <c r="AZ38" s="62"/>
-      <c r="BA38" s="60">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="61"/>
-      <c r="BC38" s="61"/>
-      <c r="BD38" s="62"/>
-      <c r="BE38" s="64">
-        <v>0</v>
-      </c>
-      <c r="BF38" s="61"/>
-      <c r="BG38" s="61"/>
-      <c r="BH38" s="62"/>
-      <c r="BI38" s="64">
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="61"/>
-      <c r="BK38" s="61"/>
-      <c r="BL38" s="62"/>
-      <c r="BM38" s="64">
-        <v>0</v>
-      </c>
-      <c r="BN38" s="61"/>
-      <c r="BO38" s="61"/>
-      <c r="BP38" s="62"/>
-      <c r="BQ38" s="65">
-        <v>0</v>
-      </c>
-      <c r="BR38" s="66"/>
-      <c r="BS38" s="66"/>
-      <c r="BT38" s="61"/>
-      <c r="BU38" s="45">
-        <f>SUM(E38:BT38)</f>
+    <row r="38" spans="2:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="34"/>
+      <c r="AP38" s="18"/>
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="33"/>
+      <c r="AS38" s="34"/>
+      <c r="AT38" s="18"/>
+      <c r="AU38" s="18"/>
+      <c r="AV38" s="33"/>
+      <c r="AW38" s="34"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
+      <c r="AZ38" s="33"/>
+      <c r="BA38" s="34"/>
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="18"/>
+      <c r="BD38" s="33"/>
+      <c r="BE38" s="18"/>
+      <c r="BF38" s="18"/>
+      <c r="BG38" s="18"/>
+      <c r="BH38" s="19"/>
+      <c r="BI38" s="34"/>
+      <c r="BJ38" s="18"/>
+      <c r="BK38" s="18"/>
+      <c r="BL38" s="18"/>
+      <c r="BM38" s="34"/>
+      <c r="BN38" s="18"/>
+      <c r="BO38" s="18"/>
+      <c r="BP38" s="18"/>
+      <c r="BQ38" s="34"/>
+      <c r="BR38" s="18"/>
+      <c r="BS38" s="18"/>
+      <c r="BT38" s="40"/>
+      <c r="BU38" s="43">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:73" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="65">
-        <v>0</v>
-      </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="64">
-        <v>0</v>
-      </c>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="64">
-        <v>0</v>
-      </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="60">
-        <v>0</v>
-      </c>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="60">
-        <v>0</v>
-      </c>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="60">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="61"/>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="60">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="61"/>
-      <c r="AE39" s="61"/>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="60">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="61"/>
-      <c r="AI39" s="61"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="60">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="61"/>
-      <c r="AM39" s="61"/>
-      <c r="AN39" s="62"/>
-      <c r="AO39" s="60">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="61"/>
-      <c r="AQ39" s="61"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="60">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="61"/>
-      <c r="AU39" s="61"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="60">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="61"/>
-      <c r="AY39" s="61"/>
-      <c r="AZ39" s="62"/>
-      <c r="BA39" s="60">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="61"/>
-      <c r="BC39" s="61"/>
-      <c r="BD39" s="62"/>
-      <c r="BE39" s="60">
-        <v>0</v>
-      </c>
-      <c r="BF39" s="61"/>
-      <c r="BG39" s="61"/>
-      <c r="BH39" s="62"/>
-      <c r="BI39" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ39" s="61"/>
-      <c r="BK39" s="61"/>
-      <c r="BL39" s="62"/>
-      <c r="BM39" s="60">
-        <v>0</v>
-      </c>
-      <c r="BN39" s="61"/>
-      <c r="BO39" s="61"/>
-      <c r="BP39" s="62"/>
-      <c r="BQ39" s="70">
-        <v>0</v>
-      </c>
-      <c r="BR39" s="66"/>
-      <c r="BS39" s="66"/>
-      <c r="BT39" s="61"/>
-      <c r="BU39" s="46">
-        <f>SUM(E39:BT39)</f>
+    <row r="39" spans="2:73" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" s="48"/>
+      <c r="AF39" s="48"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="48"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="37"/>
+      <c r="AO39" s="36"/>
+      <c r="AP39" s="48"/>
+      <c r="AQ39" s="48"/>
+      <c r="AR39" s="37"/>
+      <c r="AS39" s="36"/>
+      <c r="AT39" s="48"/>
+      <c r="AU39" s="48"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="36"/>
+      <c r="AX39" s="48"/>
+      <c r="AY39" s="48"/>
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="36"/>
+      <c r="BB39" s="48"/>
+      <c r="BC39" s="48"/>
+      <c r="BD39" s="37"/>
+      <c r="BE39" s="49"/>
+      <c r="BF39" s="49"/>
+      <c r="BG39" s="49"/>
+      <c r="BH39" s="21"/>
+      <c r="BI39" s="35"/>
+      <c r="BJ39" s="41"/>
+      <c r="BK39" s="41"/>
+      <c r="BL39" s="41"/>
+      <c r="BM39" s="35"/>
+      <c r="BN39" s="41"/>
+      <c r="BO39" s="41"/>
+      <c r="BP39" s="41"/>
+      <c r="BQ39" s="35"/>
+      <c r="BR39" s="41"/>
+      <c r="BS39" s="41"/>
+      <c r="BT39" s="41"/>
+      <c r="BU39" s="50">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:73" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="72">
+        <f>COUNT(E11:H25)/4</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="67">
+        <f>COUNT(I5:L24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="67">
+        <f>COUNT(M5:P24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="67">
+        <f>COUNT(Q5:T24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="67">
+        <f>COUNT(U5:X24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="69"/>
+      <c r="Y40" s="67">
+        <f>COUNT(Y5:AB24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="69"/>
+      <c r="AC40" s="67">
+        <f>COUNT(AC5:AF24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="69"/>
+      <c r="AG40" s="67">
+        <f>COUNT(AG5:AJ24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="69"/>
+      <c r="AK40" s="67">
+        <f>COUNT(AK5:AN24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="68"/>
+      <c r="AM40" s="68"/>
+      <c r="AN40" s="69"/>
+      <c r="AO40" s="67">
+        <f>COUNT(AO5:AR24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="68"/>
+      <c r="AQ40" s="68"/>
+      <c r="AR40" s="69"/>
+      <c r="AS40" s="67">
+        <f>COUNT(AS5:AV24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="68"/>
+      <c r="AU40" s="68"/>
+      <c r="AV40" s="69"/>
+      <c r="AW40" s="67">
+        <f>COUNT(AW5:AZ24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AX40" s="68"/>
+      <c r="AY40" s="68"/>
+      <c r="AZ40" s="69"/>
+      <c r="BA40" s="67">
+        <f>COUNT(BA5:BD24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BB40" s="68"/>
+      <c r="BC40" s="68"/>
+      <c r="BD40" s="69"/>
+      <c r="BE40" s="67">
+        <f>COUNT(BE5:BH24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BF40" s="68"/>
+      <c r="BG40" s="68"/>
+      <c r="BH40" s="69"/>
+      <c r="BI40" s="67">
+        <f>COUNT(BI5:BL24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="68"/>
+      <c r="BK40" s="68"/>
+      <c r="BL40" s="69"/>
+      <c r="BM40" s="67">
+        <f>COUNT(BM5:BP24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BN40" s="68"/>
+      <c r="BO40" s="68"/>
+      <c r="BP40" s="69"/>
+      <c r="BQ40" s="72">
+        <f>COUNT(BQ5:BT24)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BR40" s="68"/>
+      <c r="BS40" s="68"/>
+      <c r="BT40" s="68"/>
+      <c r="BU40" s="51">
+        <f>SUM(F40:BT40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:73" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="72">
+        <f>COUNT(E34:H39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="67">
+        <f>COUNT(I25:L39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="67">
+        <f>COUNT(M25:P39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="67">
+        <f>COUNT(Q25:T39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="67">
+        <f>COUNT(U25:X39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="67">
+        <f>COUNT(Y25:AB39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="69"/>
+      <c r="AC41" s="67">
+        <f>COUNT(AC25:AF39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="69"/>
+      <c r="AG41" s="67">
+        <f>COUNT(AG25:AJ39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="68"/>
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="69"/>
+      <c r="AK41" s="67">
+        <f>COUNT(AK25:AN39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="68"/>
+      <c r="AM41" s="68"/>
+      <c r="AN41" s="69"/>
+      <c r="AO41" s="67">
+        <f>COUNT(AO25:AR39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="68"/>
+      <c r="AQ41" s="68"/>
+      <c r="AR41" s="69"/>
+      <c r="AS41" s="67">
+        <f>COUNT(AS25:AV39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AT41" s="68"/>
+      <c r="AU41" s="68"/>
+      <c r="AV41" s="69"/>
+      <c r="AW41" s="67">
+        <f>COUNT(AW25:AZ39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AX41" s="68"/>
+      <c r="AY41" s="68"/>
+      <c r="AZ41" s="69"/>
+      <c r="BA41" s="67">
+        <f>COUNT(BA25:BD39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BB41" s="68"/>
+      <c r="BC41" s="68"/>
+      <c r="BD41" s="69"/>
+      <c r="BE41" s="67">
+        <f>COUNT(BE25:BH39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BF41" s="68"/>
+      <c r="BG41" s="68"/>
+      <c r="BH41" s="69"/>
+      <c r="BI41" s="67">
+        <f>COUNT(BI25:BL39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BJ41" s="68"/>
+      <c r="BK41" s="68"/>
+      <c r="BL41" s="69"/>
+      <c r="BM41" s="67">
+        <f>COUNT(BM25:BP39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BN41" s="68"/>
+      <c r="BO41" s="68"/>
+      <c r="BP41" s="69"/>
+      <c r="BQ41" s="72">
+        <f>COUNT(BQ25:BT39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="BR41" s="68"/>
+      <c r="BS41" s="68"/>
+      <c r="BT41" s="68"/>
+      <c r="BU41" s="51">
+        <f>SUM(F41:BT41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:73" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="74"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="76">
+        <f>E40+E41</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="73">
+        <f>I40+I41</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="73">
+        <f>M40+M41</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="73">
+        <f>Q40+Q41</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="73">
+        <f>U40+U41</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="74"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="75"/>
+      <c r="Y42" s="73">
+        <f>Y40+Y41</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="74"/>
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="75"/>
+      <c r="AC42" s="73">
+        <f>AC40+AC41</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="74"/>
+      <c r="AE42" s="74"/>
+      <c r="AF42" s="75"/>
+      <c r="AG42" s="73">
+        <f>AG40+AG41</f>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="74"/>
+      <c r="AI42" s="74"/>
+      <c r="AJ42" s="75"/>
+      <c r="AK42" s="73">
+        <f>AK40+AK41</f>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="74"/>
+      <c r="AM42" s="74"/>
+      <c r="AN42" s="75"/>
+      <c r="AO42" s="73">
+        <f>AO40+AO41</f>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="74"/>
+      <c r="AQ42" s="74"/>
+      <c r="AR42" s="75"/>
+      <c r="AS42" s="73">
+        <f>AS40+AS41</f>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="74"/>
+      <c r="AU42" s="74"/>
+      <c r="AV42" s="75"/>
+      <c r="AW42" s="73">
+        <f>AW40+AW41</f>
+        <v>0</v>
+      </c>
+      <c r="AX42" s="74"/>
+      <c r="AY42" s="74"/>
+      <c r="AZ42" s="75"/>
+      <c r="BA42" s="73">
+        <f>BA40+BA41</f>
+        <v>0</v>
+      </c>
+      <c r="BB42" s="74"/>
+      <c r="BC42" s="74"/>
+      <c r="BD42" s="75"/>
+      <c r="BE42" s="73">
+        <f>BE40+BE41</f>
+        <v>0</v>
+      </c>
+      <c r="BF42" s="74"/>
+      <c r="BG42" s="74"/>
+      <c r="BH42" s="75"/>
+      <c r="BI42" s="73">
+        <f>BI40+BI41</f>
+        <v>0</v>
+      </c>
+      <c r="BJ42" s="74"/>
+      <c r="BK42" s="74"/>
+      <c r="BL42" s="75"/>
+      <c r="BM42" s="73">
+        <f>BM40+BM41</f>
+        <v>0</v>
+      </c>
+      <c r="BN42" s="74"/>
+      <c r="BO42" s="74"/>
+      <c r="BP42" s="75"/>
+      <c r="BQ42" s="76">
+        <f>BQ40+BQ41</f>
+        <v>0</v>
+      </c>
+      <c r="BR42" s="74"/>
+      <c r="BS42" s="74"/>
+      <c r="BT42" s="74"/>
+      <c r="BU42" s="44">
+        <f>SUM(F42:BT42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:73" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="65">
+        <v>0</v>
+      </c>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="64">
+        <v>0</v>
+      </c>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="60">
+        <v>0</v>
+      </c>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="60">
+        <v>0</v>
+      </c>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="60">
+        <v>0</v>
+      </c>
+      <c r="V43" s="61"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="62"/>
+      <c r="AG43" s="60">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="62"/>
+      <c r="AK43" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="62"/>
+      <c r="AO43" s="60">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="61"/>
+      <c r="AQ43" s="61"/>
+      <c r="AR43" s="62"/>
+      <c r="AS43" s="60">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="61"/>
+      <c r="AU43" s="61"/>
+      <c r="AV43" s="62"/>
+      <c r="AW43" s="60">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="61"/>
+      <c r="AY43" s="61"/>
+      <c r="AZ43" s="62"/>
+      <c r="BA43" s="60">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="61"/>
+      <c r="BC43" s="61"/>
+      <c r="BD43" s="62"/>
+      <c r="BE43" s="64">
+        <v>0</v>
+      </c>
+      <c r="BF43" s="61"/>
+      <c r="BG43" s="61"/>
+      <c r="BH43" s="62"/>
+      <c r="BI43" s="64">
+        <v>0</v>
+      </c>
+      <c r="BJ43" s="61"/>
+      <c r="BK43" s="61"/>
+      <c r="BL43" s="62"/>
+      <c r="BM43" s="64">
+        <v>0</v>
+      </c>
+      <c r="BN43" s="61"/>
+      <c r="BO43" s="61"/>
+      <c r="BP43" s="62"/>
+      <c r="BQ43" s="65">
+        <v>0</v>
+      </c>
+      <c r="BR43" s="66"/>
+      <c r="BS43" s="66"/>
+      <c r="BT43" s="61"/>
+      <c r="BU43" s="45">
+        <f>SUM(E43:BT43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:73" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="85"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="65">
+        <v>0</v>
+      </c>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="64">
+        <v>0</v>
+      </c>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="64">
+        <v>0</v>
+      </c>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="60">
+        <v>0</v>
+      </c>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="60">
+        <v>0</v>
+      </c>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="60">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="62"/>
+      <c r="AG44" s="60">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="62"/>
+      <c r="AK44" s="60">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="61"/>
+      <c r="AM44" s="61"/>
+      <c r="AN44" s="62"/>
+      <c r="AO44" s="60">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="61"/>
+      <c r="AQ44" s="61"/>
+      <c r="AR44" s="62"/>
+      <c r="AS44" s="60">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="61"/>
+      <c r="AU44" s="61"/>
+      <c r="AV44" s="62"/>
+      <c r="AW44" s="60">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="61"/>
+      <c r="AY44" s="61"/>
+      <c r="AZ44" s="62"/>
+      <c r="BA44" s="60">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="61"/>
+      <c r="BC44" s="61"/>
+      <c r="BD44" s="62"/>
+      <c r="BE44" s="60">
+        <v>0</v>
+      </c>
+      <c r="BF44" s="61"/>
+      <c r="BG44" s="61"/>
+      <c r="BH44" s="62"/>
+      <c r="BI44" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ44" s="61"/>
+      <c r="BK44" s="61"/>
+      <c r="BL44" s="62"/>
+      <c r="BM44" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN44" s="61"/>
+      <c r="BO44" s="61"/>
+      <c r="BP44" s="62"/>
+      <c r="BQ44" s="70">
+        <v>0</v>
+      </c>
+      <c r="BR44" s="66"/>
+      <c r="BS44" s="66"/>
+      <c r="BT44" s="61"/>
+      <c r="BU44" s="46">
+        <f>SUM(E44:BT44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:73" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="63">
-        <f>IF(ISERROR(E38/E37),0,E38/E37)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="57">
-        <f>IF(ISERROR(I38/I37),0,I38/I37)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="57">
-        <f>IF(ISERROR(M38/M37),0,M38/M37)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="57">
-        <f>IF(ISERROR(Q38/Q37),0,Q38/Q37)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="57">
-        <f>IF(ISERROR(U38/U37),0,U38/U37)</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="57">
-        <f>IF(ISERROR(Y38/Y37),0,Y38/Y37)</f>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="58"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="57">
-        <f>IF(ISERROR(AC38/AC37),0,AC38/AC37)</f>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="58"/>
-      <c r="AE40" s="58"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="57">
-        <f>IF(ISERROR(AG38/AG37),0,AG38/AG37)</f>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="58"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="57">
-        <f>IF(ISERROR(AK38/AK37),0,AK38/AK37)</f>
-        <v>0</v>
-      </c>
-      <c r="AL40" s="58"/>
-      <c r="AM40" s="58"/>
-      <c r="AN40" s="59"/>
-      <c r="AO40" s="57">
-        <f>IF(ISERROR(AO38/AO37),0,AO38/AO37)</f>
-        <v>0</v>
-      </c>
-      <c r="AP40" s="58"/>
-      <c r="AQ40" s="58"/>
-      <c r="AR40" s="59"/>
-      <c r="AS40" s="57">
-        <f>IF(ISERROR(AS38/AS37),0,AS38/AS37)</f>
-        <v>0</v>
-      </c>
-      <c r="AT40" s="58"/>
-      <c r="AU40" s="58"/>
-      <c r="AV40" s="59"/>
-      <c r="AW40" s="57">
-        <f>IF(ISERROR(AW38/AW37),0,AW38/AW37)</f>
-        <v>0</v>
-      </c>
-      <c r="AX40" s="58"/>
-      <c r="AY40" s="58"/>
-      <c r="AZ40" s="59"/>
-      <c r="BA40" s="57">
-        <f>IF(ISERROR(BA38/BA37),0,BA38/BA37)</f>
-        <v>0</v>
-      </c>
-      <c r="BB40" s="58"/>
-      <c r="BC40" s="58"/>
-      <c r="BD40" s="59"/>
-      <c r="BE40" s="57">
-        <f>IF(ISERROR(BE38/BE37),0,BE38/BE37)</f>
-        <v>0</v>
-      </c>
-      <c r="BF40" s="58"/>
-      <c r="BG40" s="58"/>
-      <c r="BH40" s="59"/>
-      <c r="BI40" s="57">
-        <f>IF(ISERROR(BI38/BI37),0,BI38/BI37)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ40" s="58"/>
-      <c r="BK40" s="58"/>
-      <c r="BL40" s="59"/>
-      <c r="BM40" s="57">
-        <f>IF(ISERROR(BM38/BM37),0,BM38/BM37)</f>
-        <v>0</v>
-      </c>
-      <c r="BN40" s="58"/>
-      <c r="BO40" s="58"/>
-      <c r="BP40" s="59"/>
-      <c r="BQ40" s="63">
-        <f>IF(ISERROR(BQ38/BQ37),0,BQ38/BQ37)</f>
-        <v>0</v>
-      </c>
-      <c r="BR40" s="58"/>
-      <c r="BS40" s="58"/>
-      <c r="BT40" s="58"/>
-      <c r="BU40" s="47">
-        <f>IF(ISERROR(BU38/BU37),0,BU38/BU37)</f>
+      <c r="C45" s="74"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="63">
+        <f>IF(ISERROR(E43/E42),0,E43/E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="57">
+        <f>IF(ISERROR(I43/I42),0,I43/I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="57">
+        <f>IF(ISERROR(M43/M42),0,M43/M42)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="57">
+        <f>IF(ISERROR(Q43/Q42),0,Q43/Q42)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="57">
+        <f>IF(ISERROR(U43/U42),0,U43/U42)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="57">
+        <f>IF(ISERROR(Y43/Y42),0,Y43/Y42)</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="59"/>
+      <c r="AC45" s="57">
+        <f>IF(ISERROR(AC43/AC42),0,AC43/AC42)</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="58"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="59"/>
+      <c r="AG45" s="57">
+        <f>IF(ISERROR(AG43/AG42),0,AG43/AG42)</f>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="58"/>
+      <c r="AI45" s="58"/>
+      <c r="AJ45" s="59"/>
+      <c r="AK45" s="57">
+        <f>IF(ISERROR(AK43/AK42),0,AK43/AK42)</f>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="58"/>
+      <c r="AM45" s="58"/>
+      <c r="AN45" s="59"/>
+      <c r="AO45" s="57">
+        <f>IF(ISERROR(AO43/AO42),0,AO43/AO42)</f>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="58"/>
+      <c r="AQ45" s="58"/>
+      <c r="AR45" s="59"/>
+      <c r="AS45" s="57">
+        <f>IF(ISERROR(AS43/AS42),0,AS43/AS42)</f>
+        <v>0</v>
+      </c>
+      <c r="AT45" s="58"/>
+      <c r="AU45" s="58"/>
+      <c r="AV45" s="59"/>
+      <c r="AW45" s="57">
+        <f>IF(ISERROR(AW43/AW42),0,AW43/AW42)</f>
+        <v>0</v>
+      </c>
+      <c r="AX45" s="58"/>
+      <c r="AY45" s="58"/>
+      <c r="AZ45" s="59"/>
+      <c r="BA45" s="57">
+        <f>IF(ISERROR(BA43/BA42),0,BA43/BA42)</f>
+        <v>0</v>
+      </c>
+      <c r="BB45" s="58"/>
+      <c r="BC45" s="58"/>
+      <c r="BD45" s="59"/>
+      <c r="BE45" s="57">
+        <f>IF(ISERROR(BE43/BE42),0,BE43/BE42)</f>
+        <v>0</v>
+      </c>
+      <c r="BF45" s="58"/>
+      <c r="BG45" s="58"/>
+      <c r="BH45" s="59"/>
+      <c r="BI45" s="57">
+        <f>IF(ISERROR(BI43/BI42),0,BI43/BI42)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ45" s="58"/>
+      <c r="BK45" s="58"/>
+      <c r="BL45" s="59"/>
+      <c r="BM45" s="57">
+        <f>IF(ISERROR(BM43/BM42),0,BM43/BM42)</f>
+        <v>0</v>
+      </c>
+      <c r="BN45" s="58"/>
+      <c r="BO45" s="58"/>
+      <c r="BP45" s="59"/>
+      <c r="BQ45" s="63">
+        <f>IF(ISERROR(BQ43/BQ42),0,BQ43/BQ42)</f>
+        <v>0</v>
+      </c>
+      <c r="BR45" s="58"/>
+      <c r="BS45" s="58"/>
+      <c r="BT45" s="58"/>
+      <c r="BU45" s="47">
+        <f>IF(ISERROR(BU43/BU42),0,BU43/BU42)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="AK37:AN37"/>
-    <mergeCell ref="BA37:BD37"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AW37:AZ37"/>
-    <mergeCell ref="AS37:AV37"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="BA36:BD36"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AO36:AR36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AK36:AN36"/>
-    <mergeCell ref="AW35:AZ35"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="Q42:T42"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="AW36:AZ36"/>
-    <mergeCell ref="BI36:BL36"/>
-    <mergeCell ref="BE36:BH36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="BE37:BH37"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="AW39:AZ39"/>
-    <mergeCell ref="BA38:BD38"/>
-    <mergeCell ref="AW38:AZ38"/>
-    <mergeCell ref="BI38:BL38"/>
-    <mergeCell ref="BE40:BH40"/>
-    <mergeCell ref="BI40:BL40"/>
-    <mergeCell ref="AS40:AV40"/>
+    <mergeCell ref="AK42:AN42"/>
+    <mergeCell ref="BA42:BD42"/>
+    <mergeCell ref="AO42:AR42"/>
+    <mergeCell ref="AW42:AZ42"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="AC42:AF42"/>
+    <mergeCell ref="BA41:BD41"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AK41:AN41"/>
     <mergeCell ref="AW40:AZ40"/>
-    <mergeCell ref="BA40:BD40"/>
-    <mergeCell ref="BE39:BH39"/>
-    <mergeCell ref="BE38:BH38"/>
-    <mergeCell ref="BA39:BD39"/>
-    <mergeCell ref="BI39:BL39"/>
-    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="BE41:BH41"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="BE42:BH42"/>
+    <mergeCell ref="AS44:AV44"/>
+    <mergeCell ref="AW44:AZ44"/>
+    <mergeCell ref="BA43:BD43"/>
+    <mergeCell ref="AW43:AZ43"/>
+    <mergeCell ref="BI43:BL43"/>
+    <mergeCell ref="BE45:BH45"/>
+    <mergeCell ref="BI45:BL45"/>
+    <mergeCell ref="AS45:AV45"/>
+    <mergeCell ref="AW45:AZ45"/>
+    <mergeCell ref="BA45:BD45"/>
+    <mergeCell ref="BE44:BH44"/>
+    <mergeCell ref="BE43:BH43"/>
+    <mergeCell ref="BA44:BD44"/>
+    <mergeCell ref="BI44:BL44"/>
+    <mergeCell ref="Y41:AB41"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AN4:AO4"/>
     <mergeCell ref="AR4:AS4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="C25:C34"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="C25:C39"/>
     <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B15:B34"/>
+    <mergeCell ref="B15:B39"/>
     <mergeCell ref="C5:C14"/>
     <mergeCell ref="C15:C24"/>
-    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U40:X40"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M40:P40"/>
     <mergeCell ref="T4:U4"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:L40"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="BQ39:BT39"/>
-    <mergeCell ref="BM39:BP39"/>
-    <mergeCell ref="BQ38:BT38"/>
-    <mergeCell ref="BM38:BP38"/>
+    <mergeCell ref="BQ44:BT44"/>
+    <mergeCell ref="BM44:BP44"/>
+    <mergeCell ref="BQ43:BT43"/>
+    <mergeCell ref="BM43:BP43"/>
     <mergeCell ref="BP4:BQ4"/>
     <mergeCell ref="BL4:BM4"/>
+    <mergeCell ref="BM45:BP45"/>
+    <mergeCell ref="BQ45:BT45"/>
+    <mergeCell ref="AC41:AF41"/>
+    <mergeCell ref="BQ41:BT41"/>
+    <mergeCell ref="BI40:BL40"/>
     <mergeCell ref="BM40:BP40"/>
-    <mergeCell ref="BQ40:BT40"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="BQ36:BT36"/>
-    <mergeCell ref="BI35:BL35"/>
-    <mergeCell ref="BM35:BP35"/>
-    <mergeCell ref="BM37:BP37"/>
-    <mergeCell ref="BQ37:BT37"/>
-    <mergeCell ref="BM36:BP36"/>
-    <mergeCell ref="BI37:BL37"/>
-    <mergeCell ref="BA35:BD35"/>
+    <mergeCell ref="BM42:BP42"/>
+    <mergeCell ref="BQ42:BT42"/>
+    <mergeCell ref="BM41:BP41"/>
+    <mergeCell ref="BI42:BL42"/>
+    <mergeCell ref="BA40:BD40"/>
     <mergeCell ref="AV4:AW4"/>
     <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AZ4:BA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BQ35:BT35"/>
-    <mergeCell ref="BE35:BH35"/>
+    <mergeCell ref="BQ40:BT40"/>
+    <mergeCell ref="BE40:BH40"/>
+    <mergeCell ref="AK45:AN45"/>
+    <mergeCell ref="AO45:AR45"/>
+    <mergeCell ref="AO43:AR43"/>
+    <mergeCell ref="AO44:AR44"/>
+    <mergeCell ref="AS40:AV40"/>
     <mergeCell ref="AK40:AN40"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AO39:AR39"/>
-    <mergeCell ref="AS35:AV35"/>
-    <mergeCell ref="AK35:AN35"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AK38:AN38"/>
-    <mergeCell ref="AS38:AV38"/>
-    <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="AC40:AF40"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="AG43:AJ43"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="AK43:AN43"/>
+    <mergeCell ref="AS43:AV43"/>
+    <mergeCell ref="AK44:AN44"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="Y43:AB43"/>
+    <mergeCell ref="AC43:AF43"/>
+    <mergeCell ref="AC44:AF44"/>
+    <mergeCell ref="Y44:AB44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="AC45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
